--- a/test_case_data/bmc/bmc_integral_20210513.xlsx
+++ b/test_case_data/bmc/bmc_integral_20210513.xlsx
@@ -3282,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/test_case_data/bmc/bmc_integral_20210513.xlsx
+++ b/test_case_data/bmc/bmc_integral_20210513.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="290">
   <si>
     <t>caseNum</t>
   </si>
@@ -907,6 +907,58 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/56427</t>
   </si>
   <si>
+    <t>领取积分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取积分</t>
+  </si>
+  <si>
+    <t>/integral/task/receive</t>
+  </si>
+  <si>
+    <t>有待领取的任务积分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"taskCode":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>领取该任务的积分成功</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56436</t>
+  </si>
+  <si>
     <r>
       <t>r</t>
     </r>
@@ -929,6 +981,269 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Integral002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>没有可领取的积分，领取失败</t>
+  </si>
+  <si>
+    <t>待领取的任务积分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"taskCode":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>领取积分失败</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"领取积分失败","errorMsg":"领取积分失败"}</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eceive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传递参数，领取积分失败</t>
+  </si>
+  <si>
+    <t>{"taskCode":""}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"任务编码不能为空"}</t>
+  </si>
+  <si>
+    <r>
+      <t>FollowInfoIntegral0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取关注信息</t>
+  </si>
+  <si>
+    <t>参数正常，获取关注信息</t>
+  </si>
+  <si>
+    <t>/integral/task/getFollowInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"taskCode":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>成功获取到关注信息</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"title":"关注微信公众号","qrCode":"http://weixin.qq.com/r/-BwyKhrEWUcmrV5J90nu","introduce":"1.请保存二维码至手机相册;&lt;br&gt;2.打开微信，使用微信-扫一扫-相册-选择截图，识别图中二维码;&lt;br&gt;3.关注斑马信用官方微信公众号，回复“领取奖励”打开链接领取相应奖励。","attention":""}}</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56841</t>
+  </si>
+  <si>
+    <r>
+      <t>FollowInfoIntegral002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>错误的任务编码，获取关注信息失败</t>
+  </si>
+  <si>
+    <t>/integral/task/getFollowInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"taskCode":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取关注信息失败</t>
+  </si>
+  <si>
+    <r>
+      <t>FollowInfoIntegral003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传任务编码，获取关注信息失败</t>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Integral0</t>
     </r>
     <r>
@@ -945,28 +1260,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>领取积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取积分</t>
-  </si>
-  <si>
-    <t>/integral/task/receive</t>
-  </si>
-  <si>
-    <t>有待领取的任务积分</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"taskCode":</t>
+    <t>商城中的商品</t>
+  </si>
+  <si>
+    <t>参数正常，获取到商城的商品,默认排序</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/list</t>
+  </si>
+  <si>
+    <t>获取商品信息，默认排序</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"totalCount":</t>
     </r>
     <r>
       <rPr>
@@ -977,7 +1291,217 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>202</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"totalPage":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"page":1,"size":20}}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/55896</t>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>参数正常，获取到商城的商品,销量排序排序</t>
+  </si>
+  <si>
+    <t>{"pageSize":"20","pageIndex":"1","sortType":"1"}</t>
+  </si>
+  <si>
+    <t>获取商品信息，销量排序</t>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>参数正常，获取到商城的商品,低积分排序</t>
+  </si>
+  <si>
+    <t>{"pageSize":"20","pageIndex":"1","sortType":"2"}</t>
+  </si>
+  <si>
+    <t>获取商品信息，低积分排序</t>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>参数正常，获取到商城的商品,高积分排序</t>
+  </si>
+  <si>
+    <t>{"pageSize":"20","pageIndex":"1","sortType":"3"}</t>
+  </si>
+  <si>
+    <t>获取商品信息，高积分排序</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品的详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数正常，获取到商品详情</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/detail</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"goodsId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
     </r>
     <r>
       <rPr>
@@ -991,10 +1515,1202 @@
     </r>
   </si>
   <si>
-    <t>领取该任务的积分成功</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56436</t>
+    <t>获取到对应商品的详情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"success":true,"code":1000,"msg":"兑换成功","errorMsg":"操作成功","data":{"goodsId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56076</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>商品的详情</t>
+  </si>
+  <si>
+    <t>传不存在的商品id，获取商品详情失败</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"goodsId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取商品详情失败</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"商品不存在或已下架","errorMsg":"商品不存在或已下架"}</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integral003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传商品id，获取详情失败</t>
+  </si>
+  <si>
+    <t>{"goodsId":""}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"请求失败，参数错误"}</t>
+  </si>
+  <si>
+    <t>兑换商品接口</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/exchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分充足，且价格不变</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"33","amount":1,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":427}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换成功，商品数量减1</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"errorMsg":"操作成功","data":{"code":"1","msg":"兑换成功"}}</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56085</t>
+  </si>
+  <si>
+    <t>不传商品id，兑换失败</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/exchange</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"","amount":1,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换失败</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"不能为null"}</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>传不存在的商品id，兑换失败</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"1000","amount":1,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传兑换数量，兑换失败</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"33","amount":"","cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>兑换数量大于单人兑换数量限制，兑换失败</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"33","amount":100,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"已超出商品的可兑换数量","errorMsg":"已超出商品的可兑换数量"}</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传花费积分，兑换失败</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"33","amount":1,"cost":"","addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"参数错误：单价不能为空"}</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>积分不足，兑换失败</t>
+  </si>
+  <si>
+    <t>积分不足，且价格不变</t>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"33","amount":1,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"积分不足","errorMsg":"积分不足"}</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传地址，兑换成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"id":"33","amount":1,"cost":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"addressId":""}</t>
+    </r>
+  </si>
+  <si>
+    <t>applicableStoresIntegral001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询商品的适用门店列表</t>
+  </si>
+  <si>
+    <t>参数正常，获取到门店信息</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/applicableStores</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券商品</t>
+  </si>
+  <si>
+    <t>{"goodsId":"38","longitude":"104.073677","latitude":"30.394234"}</t>
+  </si>
+  <si>
+    <t>获取到门店信息</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56094</t>
+  </si>
+  <si>
+    <t>applicableStoresIntegral002</t>
+  </si>
+  <si>
+    <t>不传商品id，获取门店信息失败</t>
+  </si>
+  <si>
+    <t>/integral/mall/goods/applicableStores</t>
+  </si>
+  <si>
+    <t>{"goodsId":"","longitude":"104.073677","latitude":"30.394234"}</t>
+  </si>
+  <si>
+    <t>获取门店信息失败</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"兑换失败，参数缺失"}</t>
+  </si>
+  <si>
+    <t>applicableStoresIntegral003</t>
+  </si>
+  <si>
+    <t>不传经度，获取门店信息失败</t>
+  </si>
+  <si>
+    <t>{"goodsId":"38","longitude":"","latitude":"30.394234"}</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
+  </si>
+  <si>
+    <t>applicableStoresIntegral004</t>
+  </si>
+  <si>
+    <t>不传纬度，获取门店信息失败</t>
+  </si>
+  <si>
+    <t>{"goodsId":"38","longitude":"104.073677","latitude":""}</t>
+  </si>
+  <si>
+    <t>applicableStoresIntegral005</t>
+  </si>
+  <si>
+    <t>不传参数，获取门店信息失败</t>
+  </si>
+  <si>
+    <t>{"goodsId":"","longitude":"","latitude":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istIntegral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询兑换记录</t>
+  </si>
+  <si>
+    <t>参数正常，获取到兑换记录信息</t>
+  </si>
+  <si>
+    <t>/integral/mall/exchangeRecord/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":"1","pageSize":"20"}</t>
+  </si>
+  <si>
+    <t>获取到兑换记录信息</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"page":1,"size":30}}</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/56103</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istIntegral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传页码，获取兑换记录失败</t>
+  </si>
+  <si>
+    <t>/integral/mall/exchangeRecord/list</t>
+  </si>
+  <si>
+    <t>{"pageIndex":"","pageSize":"20"}</t>
+  </si>
+  <si>
+    <t>获取兑换记录信息失败</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istIntegral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传每页条数，获取兑换记录失败</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istIntegral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传参数，获取兑换记录失败</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecordD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etailIntegral0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询兑换记录详情</t>
+  </si>
+  <si>
+    <t>参数正常，获取兑现记录详情</t>
+  </si>
+  <si>
+    <t>/integral/mall/exchangeRecord/detail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"id":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>获取到兑换记录详情信息</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"id":18}}</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/57354</t>
+  </si>
+  <si>
+    <r>
+      <t>exchangeRecordD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etailIntegral002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>不传参数，获取兑现记录详情失败</t>
+  </si>
+  <si>
+    <t>/integral/mall/exchangeRecord/detail</t>
+  </si>
+  <si>
+    <t>{"id":""}</t>
+  </si>
+  <si>
+    <t>获取兑换记录详情失败</t>
+  </si>
+  <si>
+    <t>focusSuccessIntegral001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注成功回调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信回调成功</t>
+  </si>
+  <si>
+    <t>/integral/task/focusSuccess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channel":"weapp"}</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/61233</t>
+  </si>
+  <si>
+    <t>focusSuccessIntegral002</t>
+  </si>
+  <si>
+    <t>关注成功回调</t>
+  </si>
+  <si>
+    <t>微博回调成功</t>
+  </si>
+  <si>
+    <t>/integral/task/focusSuccess</t>
+  </si>
+  <si>
+    <t>{"channel":"blog"}</t>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusSuccessIntegral003</t>
+  </si>
+  <si>
+    <t>参数回调，失败</t>
+  </si>
+  <si>
+    <t>{"channel":""}</t>
+  </si>
+  <si>
+    <t>回调失败</t>
+  </si>
+  <si>
+    <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integral/center/sign</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"您今日已签到，不可以重复签到哦~","errorMsg":"您今日已签到，不可以重复签到哦~"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>postSignI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntegral00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>taskI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntegral00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1019,7 +2735,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Integral002</t>
+      <t>Integral0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integral/mall/goods/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageSize":"20","pageIndex":"1","sortType":"0"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral002</t>
     </r>
     <r>
       <rPr>
@@ -1032,101 +2773,15 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>没有可领取的积分，领取失败</t>
-  </si>
-  <si>
-    <t>待领取的任务积分</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"taskCode":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>领取积分失败</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"领取积分失败","errorMsg":"领取积分失败"}</t>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eceive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传递参数，领取积分失败</t>
-  </si>
-  <si>
-    <t>{"taskCode":""}</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"任务编码不能为空"}</t>
-  </si>
-  <si>
-    <r>
-      <t>FollowInfoIntegral0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数正常，兑换成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>exchangeIntegral0</t>
     </r>
     <r>
       <rPr>
@@ -1138,1655 +2793,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取关注信息</t>
-  </si>
-  <si>
-    <t>参数正常，获取关注信息</t>
-  </si>
-  <si>
-    <t>/integral/task/getFollowInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"taskCode":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>203</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>成功获取到关注信息</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"title":"关注微信公众号","qrCode":"http://weixin.qq.com/r/-BwyKhrEWUcmrV5J90nu","introduce":"1.请保存二维码至手机相册;&lt;br&gt;2.打开微信，使用微信-扫一扫-相册-选择截图，识别图中二维码;&lt;br&gt;3.关注斑马信用官方微信公众号，回复“领取奖励”打开链接领取相应奖励。","attention":""}}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56841</t>
-  </si>
-  <si>
-    <r>
-      <t>FollowInfoIntegral002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>错误的任务编码，获取关注信息失败</t>
-  </si>
-  <si>
-    <t>/integral/task/getFollowInfo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"taskCode":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>209</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>获取关注信息失败</t>
-  </si>
-  <si>
-    <r>
-      <t>FollowInfoIntegral003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传任务编码，获取关注信息失败</t>
-  </si>
-  <si>
-    <r>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城中的商品</t>
-  </si>
-  <si>
-    <t>参数正常，获取到商城的商品,默认排序</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/list</t>
-  </si>
-  <si>
-    <t>{"pageSize":"20","pageIndex":"1","sortType":"0"}</t>
-  </si>
-  <si>
-    <t>获取商品信息，默认排序</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"totalCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"totalPage":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"page":1,"size":20}}</t>
-    </r>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/55896</t>
-  </si>
-  <si>
-    <r>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>参数正常，获取到商城的商品,销量排序排序</t>
-  </si>
-  <si>
-    <t>{"pageSize":"20","pageIndex":"1","sortType":"1"}</t>
-  </si>
-  <si>
-    <t>获取商品信息，销量排序</t>
-  </si>
-  <si>
-    <r>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>参数正常，获取到商城的商品,低积分排序</t>
-  </si>
-  <si>
-    <t>{"pageSize":"20","pageIndex":"1","sortType":"2"}</t>
-  </si>
-  <si>
-    <t>获取商品信息，低积分排序</t>
-  </si>
-  <si>
-    <r>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>参数正常，获取到商城的商品,高积分排序</t>
-  </si>
-  <si>
-    <t>{"pageSize":"20","pageIndex":"1","sortType":"3"}</t>
-  </si>
-  <si>
-    <t>获取商品信息，高积分排序</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品的详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数正常，获取到商品详情</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/detail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"goodsId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>获取到对应商品的详情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"success":true,"code":1000,"msg":"兑换成功","errorMsg":"操作成功","data":{"goodsId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56076</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>商品的详情</t>
-  </si>
-  <si>
-    <t>传不存在的商品id，获取商品详情失败</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"goodsId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>获取商品详情失败</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"商品不存在或已下架","errorMsg":"商品不存在或已下架"}</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integral003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传商品id，获取详情失败</t>
-  </si>
-  <si>
-    <t>{"goodsId":""}</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"请求失败，参数错误"}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商品接口</t>
-  </si>
-  <si>
-    <t>参数正常，兑换成功</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/exchange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分充足，且价格不变</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"33","amount":1,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":427}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换成功，商品数量减1</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"errorMsg":"操作成功","data":{"code":"1","msg":"兑换成功"}}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56085</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不传商品id，兑换失败</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/exchange</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"","amount":1,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换失败</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"不能为null"}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>传不存在的商品id，兑换失败</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"1000","amount":1,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传兑换数量，兑换失败</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"33","amount":"","cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>兑换数量大于单人兑换数量限制，兑换失败</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"33","amount":100,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"已超出商品的可兑换数量","errorMsg":"已超出商品的可兑换数量"}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传花费积分，兑换失败</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"33","amount":1,"cost":"","addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"参数错误：单价不能为空"}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>积分不足，兑换失败</t>
-  </si>
-  <si>
-    <t>积分不足，且价格不变</t>
-  </si>
-  <si>
-    <r>
-      <t>{"id":"33","amount":1,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>427</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"积分不足","errorMsg":"积分不足"}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeIntegral008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传地址，兑换成功</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"id":"33","amount":1,"cost":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"addressId":""}</t>
-    </r>
-  </si>
-  <si>
-    <t>applicableStoresIntegral001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询商品的适用门店列表</t>
-  </si>
-  <si>
-    <t>参数正常，获取到门店信息</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/applicableStores</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券商品</t>
-  </si>
-  <si>
-    <t>{"goodsId":"38","longitude":"104.073677","latitude":"30.394234"}</t>
-  </si>
-  <si>
-    <t>获取到门店信息</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56094</t>
-  </si>
-  <si>
-    <t>applicableStoresIntegral002</t>
-  </si>
-  <si>
-    <t>不传商品id，获取门店信息失败</t>
-  </si>
-  <si>
-    <t>/integral/mall/goods/applicableStores</t>
-  </si>
-  <si>
-    <t>{"goodsId":"","longitude":"104.073677","latitude":"30.394234"}</t>
-  </si>
-  <si>
-    <t>获取门店信息失败</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"兑换失败，参数缺失"}</t>
-  </si>
-  <si>
-    <t>applicableStoresIntegral003</t>
-  </si>
-  <si>
-    <t>不传经度，获取门店信息失败</t>
-  </si>
-  <si>
-    <t>{"goodsId":"38","longitude":"","latitude":"30.394234"}</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1001,"msg":"系统出现错误[1001]"}</t>
-  </si>
-  <si>
-    <t>applicableStoresIntegral004</t>
-  </si>
-  <si>
-    <t>不传纬度，获取门店信息失败</t>
-  </si>
-  <si>
-    <t>{"goodsId":"38","longitude":"104.073677","latitude":""}</t>
-  </si>
-  <si>
-    <t>applicableStoresIntegral005</t>
-  </si>
-  <si>
-    <t>不传参数，获取门店信息失败</t>
-  </si>
-  <si>
-    <t>{"goodsId":"","longitude":"","latitude":""}</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>istIntegral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询兑换记录</t>
-  </si>
-  <si>
-    <t>参数正常，获取到兑换记录信息</t>
-  </si>
-  <si>
-    <t>/integral/mall/exchangeRecord/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageIndex":"1","pageSize":"20"}</t>
-  </si>
-  <si>
-    <t>获取到兑换记录信息</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"page":1,"size":30}}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/56103</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>istIntegral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传页码，获取兑换记录失败</t>
-  </si>
-  <si>
-    <t>/integral/mall/exchangeRecord/list</t>
-  </si>
-  <si>
-    <t>{"pageIndex":"","pageSize":"20"}</t>
-  </si>
-  <si>
-    <t>获取兑换记录信息失败</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>istIntegral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传每页条数，获取兑换记录失败</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>istIntegral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传参数，获取兑换记录失败</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecordD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etailIntegral0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询兑换记录详情</t>
-  </si>
-  <si>
-    <t>参数正常，获取兑现记录详情</t>
-  </si>
-  <si>
-    <t>/integral/mall/exchangeRecord/detail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"id":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <t>获取到兑换记录详情信息</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功","data":{"id":18}}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/57354</t>
-  </si>
-  <si>
-    <r>
-      <t>exchangeRecordD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etailIntegral002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>不传参数，获取兑现记录详情失败</t>
-  </si>
-  <si>
-    <t>/integral/mall/exchangeRecord/detail</t>
-  </si>
-  <si>
-    <t>{"id":""}</t>
-  </si>
-  <si>
-    <t>获取兑换记录详情失败</t>
-  </si>
-  <si>
-    <t>focusSuccessIntegral001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注成功回调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信回调成功</t>
-  </si>
-  <si>
-    <t>/integral/task/focusSuccess</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"channel":"weapp"}</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/61233</t>
-  </si>
-  <si>
-    <t>focusSuccessIntegral002</t>
-  </si>
-  <si>
-    <t>关注成功回调</t>
-  </si>
-  <si>
-    <t>微博回调成功</t>
-  </si>
-  <si>
-    <t>/integral/task/focusSuccess</t>
-  </si>
-  <si>
-    <t>{"channel":"blog"}</t>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功","errorMsg":"操作成功"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>focusSuccessIntegral003</t>
-  </si>
-  <si>
-    <t>参数回调，失败</t>
-  </si>
-  <si>
-    <t>{"channel":""}</t>
-  </si>
-  <si>
-    <t>回调失败</t>
-  </si>
-  <si>
-    <t>{"success":false,"code":1005,"msg":"关注渠道不能为空","errorMsg":"BindException.Field error in object 'focusSuccessReq'.[FocusSuccessReq(channel=,userId=null)] on field 'channel': rejected value [].default message [关注渠道不能为空]"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/integral/center/sign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":false,"code":1006,"msg":"您今日已签到，不可以重复签到哦~","errorMsg":"您今日已签到，不可以重复签到哦~"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherExpectData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>postSignI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntegral00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>taskI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ntegral00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3282,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3331,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -3343,13 +3349,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="3" spans="1:18" ht="57">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -3443,7 +3449,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>34</v>
@@ -3473,7 +3479,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4"/>
@@ -3502,7 +3508,7 @@
     </row>
     <row r="5" spans="1:18" ht="142.5">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -3960,43 +3966,43 @@
     </row>
     <row r="15" spans="1:18" ht="28.5">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>25</v>
@@ -4008,43 +4014,43 @@
     </row>
     <row r="16" spans="1:18" ht="28.5">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>25</v>
@@ -4056,22 +4062,22 @@
     </row>
     <row r="17" spans="1:18" ht="28.5">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4"/>
@@ -4080,17 +4086,17 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>25</v>
@@ -4102,22 +4108,22 @@
     </row>
     <row r="18" spans="1:18" ht="114">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4"/>
@@ -4126,17 +4132,17 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>25</v>
@@ -4148,22 +4154,22 @@
     </row>
     <row r="19" spans="1:18" ht="28.5">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="4"/>
@@ -4172,17 +4178,17 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>25</v>
@@ -4194,22 +4200,22 @@
     </row>
     <row r="20" spans="1:18" ht="28.5">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4"/>
@@ -4218,17 +4224,17 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>25</v>
@@ -4240,22 +4246,22 @@
     </row>
     <row r="21" spans="1:18" ht="57">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4"/>
@@ -4264,17 +4270,17 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>25</v>
@@ -4286,22 +4292,22 @@
     </row>
     <row r="22" spans="1:18" ht="57">
       <c r="A22" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
@@ -4310,17 +4316,17 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>25</v>
@@ -4332,22 +4338,22 @@
     </row>
     <row r="23" spans="1:18" ht="57">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="4"/>
@@ -4356,17 +4362,17 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>25</v>
@@ -4378,22 +4384,22 @@
     </row>
     <row r="24" spans="1:18" ht="57">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="4"/>
@@ -4402,17 +4408,17 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>25</v>
@@ -4424,22 +4430,22 @@
     </row>
     <row r="25" spans="1:18" ht="28.5">
       <c r="A25" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
@@ -4448,17 +4454,17 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>25</v>
@@ -4470,22 +4476,22 @@
     </row>
     <row r="26" spans="1:18" ht="28.5">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
@@ -4494,17 +4500,17 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>25</v>
@@ -4516,22 +4522,22 @@
     </row>
     <row r="27" spans="1:18" ht="28.5">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
@@ -4540,17 +4546,17 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>25</v>
@@ -4562,43 +4568,43 @@
     </row>
     <row r="28" spans="1:18" ht="28.5">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>25</v>
@@ -4610,43 +4616,43 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>25</v>
@@ -4658,43 +4664,43 @@
     </row>
     <row r="30" spans="1:18" ht="28.5">
       <c r="A30" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>25</v>
@@ -4706,43 +4712,43 @@
     </row>
     <row r="31" spans="1:18" ht="28.5">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>25</v>
@@ -4754,43 +4760,43 @@
     </row>
     <row r="32" spans="1:18" ht="42.75">
       <c r="A32" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P32" s="8" t="s">
         <v>25</v>
@@ -4802,43 +4808,43 @@
     </row>
     <row r="33" spans="1:18" ht="28.5">
       <c r="A33" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P33" s="8" t="s">
         <v>25</v>
@@ -4850,43 +4856,43 @@
     </row>
     <row r="34" spans="1:18" ht="28.5">
       <c r="A34" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>25</v>
@@ -4898,43 +4904,43 @@
     </row>
     <row r="35" spans="1:18" ht="28.5">
       <c r="A35" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>25</v>
@@ -4946,43 +4952,43 @@
     </row>
     <row r="36" spans="1:18" ht="28.5">
       <c r="A36" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>25</v>
@@ -4994,43 +5000,43 @@
     </row>
     <row r="37" spans="1:18" ht="28.5">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>25</v>
@@ -5042,43 +5048,43 @@
     </row>
     <row r="38" spans="1:18" ht="28.5">
       <c r="A38" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P38" s="8" t="s">
         <v>25</v>
@@ -5090,43 +5096,43 @@
     </row>
     <row r="39" spans="1:18" ht="28.5">
       <c r="A39" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P39" s="8" t="s">
         <v>25</v>
@@ -5138,43 +5144,43 @@
     </row>
     <row r="40" spans="1:18" ht="28.5">
       <c r="A40" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>25</v>
@@ -5186,22 +5192,22 @@
     </row>
     <row r="41" spans="1:18" ht="28.5">
       <c r="A41" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="4"/>
@@ -5210,17 +5216,17 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>25</v>
@@ -5232,22 +5238,22 @@
     </row>
     <row r="42" spans="1:18" ht="28.5">
       <c r="A42" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="4"/>
@@ -5256,17 +5262,17 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>25</v>
@@ -5278,22 +5284,22 @@
     </row>
     <row r="43" spans="1:18" ht="28.5">
       <c r="A43" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="4"/>
@@ -5305,14 +5311,14 @@
         <v>71</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>25</v>
@@ -5324,22 +5330,22 @@
     </row>
     <row r="44" spans="1:18" ht="28.5">
       <c r="A44" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="4"/>
@@ -5351,14 +5357,14 @@
         <v>74</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P44" s="8" t="s">
         <v>25</v>
@@ -5370,22 +5376,22 @@
     </row>
     <row r="45" spans="1:18" ht="28.5">
       <c r="A45" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="4"/>
@@ -5394,17 +5400,17 @@
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P45" s="8" t="s">
         <v>25</v>
@@ -5416,22 +5422,22 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="4"/>
@@ -5440,17 +5446,17 @@
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P46" s="8" t="s">
         <v>25</v>
@@ -5462,22 +5468,22 @@
     </row>
     <row r="47" spans="1:18" ht="28.5">
       <c r="A47" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="13"/>
@@ -5486,17 +5492,17 @@
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>25</v>
@@ -5508,22 +5514,22 @@
     </row>
     <row r="48" spans="1:18" ht="28.5">
       <c r="A48" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="13"/>
@@ -5532,17 +5538,17 @@
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P48" s="8" t="s">
         <v>25</v>
@@ -5554,22 +5560,22 @@
     </row>
     <row r="49" spans="1:18" ht="85.5">
       <c r="A49" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="13"/>
@@ -5578,17 +5584,17 @@
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>25</v>
